--- a/assets/trim 5/Lista de chequeo/PFPL01 - Lista de chequeo producto software.xlsx
+++ b/assets/trim 5/Lista de chequeo/PFPL01 - Lista de chequeo producto software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\APP-WEB-SENA-2\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nueva carpeta\APP-WEB-SENA-2\assets\trim 5\Lista de chequeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5724DEF-0CAF-4091-A880-25E6E0F7A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9DE778-4ADF-401E-B5AA-5210FAB15160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="150">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -105,22 +105,13 @@
     <t>Proyecto</t>
   </si>
   <si>
-    <t>Nombre del proyecto</t>
-  </si>
-  <si>
     <t>Entregable</t>
   </si>
   <si>
     <t>Autor</t>
   </si>
   <si>
-    <t>Nombre del Responsable</t>
-  </si>
-  <si>
     <t>Fecha Versión</t>
-  </si>
-  <si>
-    <t>20/04/2023</t>
   </si>
   <si>
     <t>Versión / Edición</t>
@@ -379,28 +370,133 @@
     <t>PAGOS</t>
   </si>
   <si>
-    <t>inicio de sesion</t>
-  </si>
-  <si>
-    <t>recuperar contraseña</t>
-  </si>
-  <si>
-    <t>crear rol</t>
-  </si>
-  <si>
-    <t>consultar rol</t>
-  </si>
-  <si>
-    <t>modificar rol</t>
-  </si>
-  <si>
-    <t>eliminar rol</t>
-  </si>
-  <si>
     <t>Registrar usuario</t>
   </si>
   <si>
-    <t>consultar usuario</t>
+    <t>Incio de sesion</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Consultar usuario</t>
+  </si>
+  <si>
+    <t>Modificar usuario</t>
+  </si>
+  <si>
+    <t>Eliminar usuario</t>
+  </si>
+  <si>
+    <t>Cerrar sesion</t>
+  </si>
+  <si>
+    <t>Crear pagos</t>
+  </si>
+  <si>
+    <t>Consultar pagos</t>
+  </si>
+  <si>
+    <t>Crear comision</t>
+  </si>
+  <si>
+    <t>Crear factura</t>
+  </si>
+  <si>
+    <t>Actualizar pagos</t>
+  </si>
+  <si>
+    <t>Eliminar pagos</t>
+  </si>
+  <si>
+    <t>CITAS</t>
+  </si>
+  <si>
+    <t>Agendar cita</t>
+  </si>
+  <si>
+    <t>Consultar una cita</t>
+  </si>
+  <si>
+    <t>Modificar una cita</t>
+  </si>
+  <si>
+    <t>Cancelar una cita</t>
+  </si>
+  <si>
+    <t>Mostrar disponibilidad de citas</t>
+  </si>
+  <si>
+    <t>Crear servicio</t>
+  </si>
+  <si>
+    <t>Consultar servicio</t>
+  </si>
+  <si>
+    <t>Modificar servicio</t>
+  </si>
+  <si>
+    <t>Eliminar servicio</t>
+  </si>
+  <si>
+    <t>Crear producto</t>
+  </si>
+  <si>
+    <t>Consultar producto</t>
+  </si>
+  <si>
+    <t>Modificar producto</t>
+  </si>
+  <si>
+    <t>Eliminar producto</t>
+  </si>
+  <si>
+    <t>Servicios y Productos</t>
+  </si>
+  <si>
+    <t>No Cumple</t>
+  </si>
+  <si>
+    <t>Cumple</t>
+  </si>
+  <si>
+    <t>Consultar factura</t>
+  </si>
+  <si>
+    <t>Modificar factura</t>
+  </si>
+  <si>
+    <t>Eliminar factura</t>
+  </si>
+  <si>
+    <t>Descargar factura</t>
+  </si>
+  <si>
+    <t>Crear reportes usuarios</t>
+  </si>
+  <si>
+    <t>Crear reporte producto</t>
+  </si>
+  <si>
+    <t>Crear reporte pagos</t>
+  </si>
+  <si>
+    <t>Crear reporte de citas</t>
+  </si>
+  <si>
+    <t>SGCITAS</t>
+  </si>
+  <si>
+    <t>Jose Guerra, Maryuri Leon</t>
+  </si>
+  <si>
+    <t>Jose Antonio Guerra Diaz</t>
+  </si>
+  <si>
+    <t>3/04/2024</t>
+  </si>
+  <si>
+    <t>Jose Antonio Guerra Diaz, Maryuri Zuleima Leon Ayala</t>
   </si>
 </sst>
 </file>
@@ -494,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +603,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -1144,7 +1246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1292,44 +1394,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,26 +1446,42 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1387,6 +1489,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2" xr:uid="{1EB9EC41-D830-4ACE-B66C-36C057A1DC02}"/>
@@ -1756,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A635BB-A94A-407B-BBB0-F2B3339CC475}">
   <dimension ref="A2:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5"/>
@@ -1779,123 +1883,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="B3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="B4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="10"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="C12" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="69"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>42</v>
+      <c r="F14" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="73"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="67"/>
       <c r="E15" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="75"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="69"/>
       <c r="E16" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" s="18">
         <v>3</v>
@@ -1903,158 +2007,160 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="B21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B22" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="72"/>
       <c r="F22" s="27" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1">
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
     <row r="32" spans="2:16" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
+      <c r="B34" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
     </row>
     <row r="35" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
+      <c r="B35" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
       <c r="J36" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
     </row>
     <row r="38" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
     </row>
     <row r="39" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="34"/>
@@ -2215,12 +2321,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -2233,16 +2343,12 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -2253,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC27DB5-F54D-4E92-8170-7A53853F8C0C}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2269,10 +2375,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="42"/>
@@ -2295,13 +2401,15 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D3" s="6" t="str">
         <f>IF(C3="Cumple","Ninguna","")</f>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2309,11 +2417,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D4" s="6" t="str">
-        <f t="shared" ref="D4:D16" si="0">IF(C4="Cumple","Ninguna","")</f>
+        <f t="shared" ref="D4:D9" si="0">IF(C4="Cumple","Ninguna","")</f>
         <v/>
       </c>
     </row>
@@ -2321,842 +2431,618 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="B5" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="B6" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="D12:D17" si="1">IF(C12="Cumple","Ninguna","")</f>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f t="shared" ref="D20:D24" si="2">IF(C20="Cumple","Ninguna","")</f>
+        <v>Ninguna</v>
+      </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Ninguna</v>
+      </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Ninguna</v>
+      </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Ninguna</v>
+      </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" ref="D27:D34" si="3">IF(C27="Cumple","Ninguna","")</f>
+        <v>Ninguna</v>
+      </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
+      </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A31" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="8">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D32" s="6" t="str">
-        <f t="shared" ref="D32:D46" si="1">IF(C32="Cumple","Ninguna","")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="8">
-        <v>17</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="8">
-        <v>18</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A37" s="8">
+        <v>27</v>
+      </c>
+      <c r="B37" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f t="shared" ref="D37:D45" si="4">IF(C37="Cumple","Ninguna","")</f>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A38" s="8">
+        <v>28</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A39" s="8">
+        <v>29</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="8">
-        <v>19</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
+    <row r="40" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A40" s="8">
+        <v>30</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="8">
-        <v>20</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="8">
-        <v>21</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A38" s="8">
-        <v>22</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="8">
-        <v>23</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="8">
-        <v>24</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:4" ht="30" customHeight="1">
       <c r="A41" s="8">
-        <v>25</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
       <c r="A42" s="8">
-        <v>26</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27" customHeight="1">
       <c r="A43" s="8">
-        <v>27</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="27" customHeight="1">
       <c r="A44" s="8">
-        <v>28</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="27" customHeight="1">
       <c r="A45" s="8">
-        <v>29</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="8">
-        <v>30</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-    </row>
-    <row r="48" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="45" t="s">
+        <f t="shared" si="4"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B47" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="8">
-        <v>31</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6" t="str">
-        <f t="shared" ref="D49:D63" si="2">IF(C49="Cumple","Ninguna","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="8">
-        <v>32</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A51" s="8">
-        <v>33</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A52" s="8">
-        <v>34</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A53" s="8">
-        <v>35</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A54" s="8">
-        <v>36</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A55" s="8">
-        <v>37</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A56" s="8">
-        <v>38</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A57" s="8">
-        <v>39</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A58" s="8">
-        <v>40</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A59" s="8">
-        <v>41</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A60" s="8">
-        <v>42</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A61" s="8">
-        <v>43</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A62" s="8">
-        <v>44</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A63" s="8">
-        <v>45</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A64" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="42"/>
-    </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A65" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A66" s="8">
-        <v>46</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6" t="str">
-        <f t="shared" ref="D66:D80" si="3">IF(C66="Cumple","Ninguna","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A67" s="8">
-        <v>47</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A68" s="8">
-        <v>48</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A69" s="8">
-        <v>49</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A70" s="8">
-        <v>50</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A71" s="8">
-        <v>51</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A72" s="8">
-        <v>52</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A73" s="8">
-        <v>53</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A74" s="8">
-        <v>54</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A75" s="8">
-        <v>55</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A76" s="8">
-        <v>56</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A77" s="8">
-        <v>57</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A78" s="8">
-        <v>58</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A79" s="8">
-        <v>59</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A80" s="8">
-        <v>60</v>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A81" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-    </row>
-    <row r="82" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A82" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="39" t="s">
+      <c r="D47" s="39" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C46 C49:C63 C66:C80 C3:C29" xr:uid="{F381E73E-C892-4E35-A1B1-7DCF65F35B27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17 C20:C24 C27:C34 C37:C45 C3:C9" xr:uid="{F381E73E-C892-4E35-A1B1-7DCF65F35B27}">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3168,7 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B13:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -3199,10 +3087,12 @@
       <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D2" s="6" t="str">
         <f>IF(C2="Cumple","Ninguna","")</f>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3212,10 +3102,12 @@
       <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D65" si="0">IF(C3="Cumple","Ninguna","")</f>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3225,10 +3117,12 @@
       <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3236,12 +3130,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3249,12 +3145,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3262,12 +3160,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3275,12 +3175,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3288,12 +3190,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3315,9 +3219,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3328,12 +3234,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3341,12 +3249,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3354,9 +3264,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3367,9 +3279,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3380,12 +3294,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3393,12 +3309,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3420,12 +3338,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3433,12 +3353,14 @@
         <v>17</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3446,12 +3368,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3459,12 +3383,14 @@
         <v>19</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3472,12 +3398,14 @@
         <v>20</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3485,12 +3413,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3498,12 +3428,14 @@
         <v>22</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3511,12 +3443,14 @@
         <v>23</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3538,12 +3472,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3551,9 +3487,11 @@
         <v>25</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3564,9 +3502,11 @@
         <v>26</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3577,9 +3517,11 @@
         <v>27</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3590,12 +3532,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
@@ -3603,12 +3547,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3630,12 +3576,14 @@
         <v>30</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1">
@@ -3643,12 +3591,14 @@
         <v>31</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1">
@@ -3656,12 +3606,14 @@
         <v>32</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3683,12 +3635,14 @@
         <v>33</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1">
@@ -3696,9 +3650,11 @@
         <v>34</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D40" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3709,9 +3665,11 @@
         <v>35</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3722,12 +3680,14 @@
         <v>36</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
@@ -3735,12 +3695,14 @@
         <v>37</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1">
@@ -3748,12 +3710,14 @@
         <v>38</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
@@ -3761,12 +3725,14 @@
         <v>39</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1">
@@ -3774,12 +3740,14 @@
         <v>40</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
@@ -3787,12 +3755,14 @@
         <v>41</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1">
@@ -3800,12 +3770,14 @@
         <v>42</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3827,12 +3799,14 @@
         <v>43</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
@@ -3840,12 +3814,14 @@
         <v>44</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1">
@@ -3853,12 +3829,14 @@
         <v>45</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1">
@@ -3866,12 +3844,14 @@
         <v>46</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1">
@@ -3879,9 +3859,11 @@
         <v>47</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D54" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3892,9 +3874,11 @@
         <v>48</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D55" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3905,12 +3889,14 @@
         <v>49</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1">
@@ -3918,12 +3904,14 @@
         <v>50</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1">
@@ -3931,12 +3919,14 @@
         <v>51</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1">
@@ -3944,12 +3934,14 @@
         <v>52</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3971,12 +3963,14 @@
         <v>53</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1">
@@ -3984,12 +3978,14 @@
         <v>54</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D62" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1">
@@ -3997,9 +3993,11 @@
         <v>55</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D63" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4010,12 +4008,14 @@
         <v>56</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D64" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1">
@@ -4023,9 +4023,11 @@
         <v>57</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D65" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4033,7 +4035,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C11:C17 C19:C26 C28:C32 C50:C59 C39:C48 C33 C35:C37" xr:uid="{28946FFD-2DE3-4AFF-8B02-311FA9F788A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C11:C17 C19:C26 C50:C59 C39:C48 C28:C33 C35:C37 C61:C65" xr:uid="{28946FFD-2DE3-4AFF-8B02-311FA9F788A5}">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4043,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D51D51-DE4C-4B5C-90F6-8EADB68EB458}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4059,22 +4061,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1">
@@ -4082,19 +4084,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5">
         <f>COUNT('Requisitos Funcionales'!A:A)</f>
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5">
-        <f>COUNTIF('Requisitos Funcionales'!C2:C80,"Cumple")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E2" s="48">
         <f>D2/C2%</f>
-        <v>0</v>
+        <v>85.714285714285722</v>
       </c>
       <c r="F2" s="87"/>
     </row>
@@ -4103,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <f>COUNT('Requisitos No Funcionales'!A:A)</f>
@@ -4111,30 +4112,43 @@
       </c>
       <c r="D3" s="5">
         <f>COUNTIF('Requisitos No Funcionales'!C:C,"Cumple")</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E3" s="48">
         <f t="shared" ref="E3:E4" si="0">D3/C3%</f>
-        <v>0</v>
+        <v>78.947368421052644</v>
       </c>
       <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
       <c r="C4" s="46">
         <f>SUM(C2:C3)</f>
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D4" s="46">
         <f>SUM(D2:D3)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E4" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81.521739130434781</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>IF(E4&gt;=90,"APROBADO",IF(AND(E4&gt;=70,E4&lt;90),"CORREGIR","NO APROBADO"))</f>
-        <v>NO APROBADO</v>
+        <v>CORREGIR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
